--- a/public/system_files/templateExcel.xlsx
+++ b/public/system_files/templateExcel.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Name English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name Arabic</t>
   </si>
   <si>
     <t xml:space="preserve">BirthDate</t>
@@ -71,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -101,6 +104,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +155,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,29 +185,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="8" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="9" style="0" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -232,10 +246,10 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
